--- a/joven points.xlsx
+++ b/joven points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/mlig317_uoa_auckland_ac_nz/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E25B632D-9CBA-4537-BB86-FA3945E9A693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{E25B632D-9CBA-4537-BB86-FA3945E9A693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63758DD3-271F-4401-9961-5CC5EB58FFD4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AACC6A42-7B96-4D5A-B694-EC4F851BCA65}"/>
   </bookViews>
@@ -2054,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E95EF23-42EC-480E-8339-9A0E2D6DD846}">
   <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,6 +2083,14 @@
       <c r="G1">
         <v>0</v>
       </c>
+      <c r="I1">
+        <f>150-30*COS((P1/2)*G1/16)</f>
+        <v>120</v>
+      </c>
+      <c r="J1">
+        <f>70-30*SIN((P1/2)*G1/16)</f>
+        <v>70</v>
+      </c>
       <c r="P1">
         <v>3.14159265358979</v>
       </c>
@@ -2100,15 +2108,23 @@
         <v>66.964950340377044</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E64" si="2">150-30*COS((P2/2)*A2/32)</f>
+        <f>150-30*COS((P2/2)*A2/32)</f>
         <v>120.03613631384482</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F64" si="3">70-30*SIN((P2/2)*A2/32)</f>
+        <f t="shared" ref="F2:F64" si="2">70-30*SIN((P2/2)*A2/32)</f>
         <v>68.527969770177464</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I65" si="3">150-30*COS((P2/2)*G2/16)</f>
+        <v>120.14445819983409</v>
+      </c>
+      <c r="J2">
+        <f>70-30*SIN((P2/2)*G2/16)</f>
+        <v>67.059485790113186</v>
       </c>
       <c r="P2">
         <v>3.14159265358979</v>
@@ -2127,15 +2143,23 @@
         <v>63.961044397340203</v>
       </c>
       <c r="E3">
-        <f t="shared" si="2"/>
+        <f>150-30*COS((P3/2)*A3/32)</f>
         <v>120.14445819983409</v>
       </c>
       <c r="F3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>67.059485790113186</v>
       </c>
       <c r="G3">
         <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>120.57644158790308</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J65" si="4">70-30*SIN((P3/2)*G3/16)</f>
+        <v>64.147290339516161</v>
       </c>
       <c r="P3">
         <v>3.14159265358979</v>
@@ -2154,15 +2178,23 @@
         <v>61.019106310799266</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E2:E64" si="5">150-30*COS((P4/2)*A4/32)</f>
         <v>120.32470470105656</v>
       </c>
       <c r="F4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>65.598085766339153</v>
       </c>
       <c r="G4">
         <v>3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>121.29178992803374</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>61.291459682366138</v>
       </c>
       <c r="P4">
         <v>3.14159265358979</v>
@@ -2181,15 +2213,23 @@
         <v>58.169324346600455</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>120.57644158790308</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64.147290339516161</v>
       </c>
       <c r="G5">
         <v>4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>122.28361402466139</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>58.519497029047315</v>
       </c>
       <c r="P5">
         <v>3.14159265358979</v>
@@ -2208,15 +2248,23 @@
         <v>55.440941124067585</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>120.89906240416369</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>62.710594602902091</v>
       </c>
       <c r="G6">
         <v>5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>123.54236206954934</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>55.858097895220084</v>
       </c>
       <c r="P6">
         <v>3.14159265358979</v>
@@ -2235,15 +2283,23 @@
         <v>52.861953547156247</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121.29178992803374</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>61.291459682366138</v>
       </c>
       <c r="G7">
         <v>6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>125.05591163092363</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>53.332893009411947</v>
       </c>
       <c r="P7">
         <v>3.14159265358979</v>
@@ -2262,15 +2318,23 @@
         <v>50.458825518333349</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121.75367804450937</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>59.893304398233411</v>
       </c>
       <c r="G8">
         <v>7</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>126.80968639911788</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>50.968201475090652</v>
       </c>
       <c r="P8">
         <v>3.14159265358979</v>
@@ -2289,15 +2353,23 @@
         <v>48.256216383126414</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>122.28361402466139</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>58.519497029047315</v>
       </c>
       <c r="G9">
         <v>8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>128.78679656440355</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>48.786796564403588</v>
       </c>
       <c r="P9">
         <v>3.14159265358979</v>
@@ -2316,15 +2388,23 @@
         <v>46.276727891869058</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>122.88032120629668</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>57.173347197091552</v>
       </c>
       <c r="G10">
         <v>9</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>130.96820147509061</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>46.809686399117908</v>
       </c>
       <c r="P10">
         <v>3.14159265358979</v>
@@ -2343,15 +2423,23 @@
         <v>44.54067227515749</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>123.54236206954934</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>55.858097895220084</v>
       </c>
       <c r="G11">
         <v>10</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>133.33289300941192</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>45.05591163092366</v>
       </c>
       <c r="P11">
         <v>3.14159265358979</v>
@@ -2370,15 +2458,23 @@
         <v>43.065863812877765</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>124.26814169999183</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>54.576917674203358</v>
       </c>
       <c r="G12">
         <v>11</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>135.85809789522006</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>43.54236206954937</v>
       </c>
       <c r="P12">
         <v>3.14159265358979</v>
@@ -2397,15 +2493,23 @@
         <v>41.867436035587602</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>125.05591163092363</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53.332893009411947</v>
       </c>
       <c r="G13">
         <v>12</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>138.51949702904727</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>42.283614024661411</v>
       </c>
       <c r="P13">
         <v>3.14159265358979</v>
@@ -2424,15 +2528,23 @@
         <v>40.95768643401388</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>125.90377405558064</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>52.129020865227019</v>
       </c>
       <c r="G14">
         <v>13</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>141.29145968236608</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>41.291789928033744</v>
       </c>
       <c r="P14">
         <v>3.14159265358979</v>
@@ -2451,15 +2563,23 @@
         <v>40.345950270156663</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>126.80968639911788</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50.968201475090652</v>
       </c>
       <c r="G15">
         <v>14</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>144.1472903395161</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>40.576441587903091</v>
       </c>
       <c r="P15">
         <v>3.14159265358979</v>
@@ -2478,15 +2598,23 @@
         <v>40.038504784868422</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>127.77146623935121</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49.853231354589468</v>
       </c>
       <c r="G16">
         <v>15</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>147.05948579011314</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>40.144458199834098</v>
       </c>
       <c r="P16">
         <v>3.14159265358979</v>
@@ -2505,15 +2633,23 @@
         <v>40.038504784868415</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>128.78679656440355</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48.786796564403588</v>
       </c>
       <c r="G17">
         <v>16</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>149.99999999999994</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="P17">
         <v>3.14159265358979</v>
@@ -2532,15 +2668,23 @@
         <v>40.345950270156649</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>129.85323135458944</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47.771466239351241</v>
       </c>
       <c r="G18">
         <v>17</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>152.94051420988677</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>40.144458199834091</v>
       </c>
       <c r="P18">
         <v>3.14159265358979</v>
@@ -2559,15 +2703,23 @@
         <v>40.957686434013858</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>130.96820147509061</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46.809686399117908</v>
       </c>
       <c r="G19">
         <v>18</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>155.85270966048378</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>40.576441587903076</v>
       </c>
       <c r="P19">
         <v>3.14159265358979</v>
@@ -2586,15 +2738,23 @@
         <v>41.867436035587559</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>132.12902086522698</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45.903774055580669</v>
       </c>
       <c r="G20">
         <v>19</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>158.7085403176338</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>41.291789928033722</v>
       </c>
       <c r="P20">
         <v>3.14159265358979</v>
@@ -2613,15 +2773,23 @@
         <v>43.065863812877723</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>133.33289300941192</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45.05591163092366</v>
       </c>
       <c r="G21">
         <v>20</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>161.48050297095264</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>42.283614024661375</v>
       </c>
       <c r="P21">
         <v>3.14159265358979</v>
@@ -2640,15 +2808,23 @@
         <v>44.540672275157434</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>134.57691767420332</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44.268141699991858</v>
       </c>
       <c r="G22">
         <v>21</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>164.14190210477986</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>43.54236206954932</v>
       </c>
       <c r="P22">
         <v>3.14159265358979</v>
@@ -2667,15 +2843,23 @@
         <v>46.276727891869001</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>135.85809789522006</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43.54236206954937</v>
       </c>
       <c r="G23">
         <v>22</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>166.66710699058802</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>45.05591163092361</v>
       </c>
       <c r="P23">
         <v>3.14159265358979</v>
@@ -2694,15 +2878,23 @@
         <v>48.256216383126343</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>137.17334719709152</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42.880321206296713</v>
       </c>
       <c r="G24">
         <v>23</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>169.03179852490931</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>46.809686399117844</v>
       </c>
       <c r="P24">
         <v>3.14159265358979</v>
@@ -2721,15 +2913,23 @@
         <v>50.458825518333285</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>138.51949702904727</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42.283614024661411</v>
       </c>
       <c r="G25">
         <v>24</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>171.21320343559637</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>48.786796564403531</v>
       </c>
       <c r="P25">
         <v>3.14159265358979</v>
@@ -2748,15 +2948,23 @@
         <v>52.861953547156162</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>139.89330439823337</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41.753678044509385</v>
       </c>
       <c r="G26">
         <v>25</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>173.19031360088206</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>50.968201475090574</v>
       </c>
       <c r="P26">
         <v>3.14159265358979</v>
@@ -2775,15 +2983,23 @@
         <v>55.4409411240675</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>141.29145968236608</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41.291789928033744</v>
       </c>
       <c r="G27">
         <v>26</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>174.94408836907633</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>53.332893009411876</v>
       </c>
       <c r="P27">
         <v>3.14159265358979</v>
@@ -2802,15 +3018,23 @@
         <v>58.169324346600355</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>142.71059460290203</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.899062404163686</v>
       </c>
       <c r="G28">
         <v>27</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>176.4576379304506</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>55.858097895219998</v>
       </c>
       <c r="P28">
         <v>3.14159265358979</v>
@@ -2829,15 +3053,23 @@
         <v>61.019106310799188</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>144.1472903395161</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.576441587903091</v>
       </c>
       <c r="G29">
         <v>28</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>177.71638597533857</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>58.51949702904723</v>
       </c>
       <c r="P29">
         <v>3.14159265358979</v>
@@ -2856,15 +3088,23 @@
         <v>63.961044397340103</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>145.5980857663391</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.324704701056575</v>
       </c>
       <c r="G30">
         <v>29</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>178.70821007196625</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>61.291459682366039</v>
       </c>
       <c r="P30">
         <v>3.14159265358979</v>
@@ -2883,15 +3123,23 @@
         <v>66.964950340376944</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>147.05948579011314</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.144458199834098</v>
       </c>
       <c r="G31">
         <v>30</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>179.4235584120969</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>64.147290339516061</v>
       </c>
       <c r="P31">
         <v>3.14159265358979</v>
@@ -2910,15 +3158,23 @@
         <v>69.999999999999901</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>148.52796977017741</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.036136313844835</v>
       </c>
       <c r="G32">
         <v>31</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>179.85554180016589</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>67.059485790113087</v>
       </c>
       <c r="P32">
         <v>3.14159265358979</v>
@@ -2937,15 +3193,23 @@
         <v>73.035049659622871</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>149.99999999999994</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="G33">
         <v>32</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>69.999999999999901</v>
       </c>
       <c r="P33">
         <v>3.14159265358979</v>
@@ -2964,15 +3228,23 @@
         <v>76.038955602659712</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>151.47203022982251</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.036136313844821</v>
       </c>
       <c r="G34">
         <v>31</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>179.85554180016589</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>67.059485790113087</v>
       </c>
       <c r="P34">
         <v>3.14159265358979</v>
@@ -2991,15 +3263,23 @@
         <v>78.980893689200627</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>152.94051420988677</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.144458199834091</v>
       </c>
       <c r="G35">
         <v>30</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>179.4235584120969</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>64.147290339516061</v>
       </c>
       <c r="P35">
         <v>3.14159265358979</v>
@@ -3018,15 +3298,23 @@
         <v>81.830675653399467</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>154.40191423366079</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.324704701056561</v>
       </c>
       <c r="G36">
         <v>29</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>178.70821007196625</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>61.291459682366039</v>
       </c>
       <c r="P36">
         <v>3.14159265358979</v>
@@ -3045,15 +3333,23 @@
         <v>84.559058875932337</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>155.85270966048378</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.576441587903076</v>
       </c>
       <c r="G37">
         <v>28</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>177.71638597533857</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>58.51949702904723</v>
       </c>
       <c r="P37">
         <v>3.14159265358979</v>
@@ -3072,15 +3368,23 @@
         <v>87.138046452843668</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>157.28940539709785</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.899062404163672</v>
       </c>
       <c r="G38">
         <v>27</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>176.4576379304506</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>55.858097895219998</v>
       </c>
       <c r="P38">
         <v>3.14159265358979</v>
@@ -3099,15 +3403,23 @@
         <v>89.541174481666573</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>158.7085403176338</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41.291789928033722</v>
       </c>
       <c r="G39">
         <v>26</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>174.94408836907633</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>53.332893009411876</v>
       </c>
       <c r="P39">
         <v>3.14159265358979</v>
@@ -3126,15 +3438,23 @@
         <v>91.743783616873515</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160.10669560176655</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41.753678044509357</v>
       </c>
       <c r="G40">
         <v>25</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>173.19031360088206</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>50.968201475090574</v>
       </c>
       <c r="P40">
         <v>3.14159265358979</v>
@@ -3153,15 +3473,23 @@
         <v>93.723272108130885</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>161.48050297095264</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42.283614024661375</v>
       </c>
       <c r="G41">
         <v>24</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>171.21320343559637</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>48.786796564403531</v>
       </c>
       <c r="P41">
         <v>3.14159265358979</v>
@@ -3180,15 +3508,23 @@
         <v>95.459327724842467</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>162.8266528029084</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42.880321206296671</v>
       </c>
       <c r="G42">
         <v>23</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>169.03179852490931</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>46.809686399117844</v>
       </c>
       <c r="P42">
         <v>3.14159265358979</v>
@@ -3207,15 +3543,23 @@
         <v>96.934136187122192</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>164.14190210477986</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43.54236206954932</v>
       </c>
       <c r="G43">
         <v>22</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>166.66710699058802</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>45.05591163092361</v>
       </c>
       <c r="P43">
         <v>3.14159265358979</v>
@@ -3234,15 +3578,23 @@
         <v>98.132563964412356</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>165.4230823257966</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44.268141699991801</v>
       </c>
       <c r="G44">
         <v>21</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>164.14190210477986</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>43.54236206954932</v>
       </c>
       <c r="P44">
         <v>3.14159265358979</v>
@@ -3261,15 +3613,23 @@
         <v>99.042313565986092</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>166.66710699058802</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45.05591163092361</v>
       </c>
       <c r="G45">
         <v>20</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>161.48050297095264</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>42.283614024661375</v>
       </c>
       <c r="P45">
         <v>3.14159265358979</v>
@@ -3288,15 +3648,23 @@
         <v>99.654049729843322</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>167.87097913477294</v>
       </c>
       <c r="F46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45.903774055580612</v>
       </c>
       <c r="G46">
         <v>19</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>158.7085403176338</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>41.291789928033722</v>
       </c>
       <c r="P46">
         <v>3.14159265358979</v>
@@ -3315,15 +3683,23 @@
         <v>99.961495215131578</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>169.03179852490931</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46.809686399117844</v>
       </c>
       <c r="G47">
         <v>18</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>155.85270966048378</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>40.576441587903076</v>
       </c>
       <c r="P47">
         <v>3.14159265358979</v>
@@ -3342,15 +3718,23 @@
         <v>99.961495215131592</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>170.1467686454105</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47.77146623935117</v>
       </c>
       <c r="G48">
         <v>17</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>152.94051420988677</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>40.144458199834091</v>
       </c>
       <c r="P48">
         <v>3.14159265358979</v>
@@ -3369,15 +3753,23 @@
         <v>99.654049729843365</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>171.21320343559637</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48.786796564403531</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>-16</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>149.99999999999994</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="P49">
         <v>3.14159265358979</v>
@@ -3396,15 +3788,23 @@
         <v>99.042313565986163</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>172.22853376064873</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49.853231354589397</v>
       </c>
       <c r="G50">
         <v>15</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>147.05948579011314</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>40.144458199834098</v>
       </c>
       <c r="P50">
         <v>3.14159265358979</v>
@@ -3423,15 +3823,23 @@
         <v>98.132563964412469</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>173.19031360088206</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50.968201475090574</v>
       </c>
       <c r="G51">
         <v>14</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>144.1472903395161</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>40.576441587903091</v>
       </c>
       <c r="P51">
         <v>3.14159265358979</v>
@@ -3450,15 +3858,23 @@
         <v>96.934136187122306</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>174.0962259444193</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>52.129020865226941</v>
       </c>
       <c r="G52">
         <v>13</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>141.29145968236608</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>41.291789928033744</v>
       </c>
       <c r="P52">
         <v>3.14159265358979</v>
@@ -3477,15 +3893,23 @@
         <v>95.459327724842609</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>174.94408836907633</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53.332893009411876</v>
       </c>
       <c r="G53">
         <v>12</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>138.51949702904727</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>42.283614024661411</v>
       </c>
       <c r="P53">
         <v>3.14159265358979</v>
@@ -3504,15 +3928,23 @@
         <v>93.72327210813107</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>175.73185830000813</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>54.576917674203273</v>
       </c>
       <c r="G54">
         <v>11</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>135.85809789522006</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>43.54236206954937</v>
       </c>
       <c r="P54">
         <v>3.14159265358979</v>
@@ -3531,15 +3963,23 @@
         <v>91.743783616873728</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>176.4576379304506</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>55.858097895219998</v>
       </c>
       <c r="G55">
         <v>10</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>133.33289300941192</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>45.05591163092366</v>
       </c>
       <c r="P55">
         <v>3.14159265358979</v>
@@ -3558,15 +3998,23 @@
         <v>89.541174481666786</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>177.11967879370326</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>57.173347197091466</v>
       </c>
       <c r="G56">
         <v>9</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>130.96820147509061</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>46.809686399117908</v>
       </c>
       <c r="P56">
         <v>3.14159265358979</v>
@@ -3585,15 +4033,23 @@
         <v>87.138046452843895</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>177.71638597533857</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>58.51949702904723</v>
       </c>
       <c r="G57">
         <v>8</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>128.78679656440355</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>48.786796564403588</v>
       </c>
       <c r="P57">
         <v>3.14159265358979</v>
@@ -3612,15 +4068,23 @@
         <v>84.559058875932578</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>178.2463219554906</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>59.893304398233312</v>
       </c>
       <c r="G58">
         <v>7</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>126.80968639911788</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>50.968201475090652</v>
       </c>
       <c r="P58">
         <v>3.14159265358979</v>
@@ -3639,15 +4103,23 @@
         <v>81.830675653399737</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>178.70821007196625</v>
       </c>
       <c r="F59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>61.291459682366039</v>
       </c>
       <c r="G59">
         <v>6</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>125.05591163092363</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>53.332893009411947</v>
       </c>
       <c r="P59">
         <v>3.14159265358979</v>
@@ -3666,15 +4138,23 @@
         <v>78.980893689200911</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>179.10093759583629</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>62.710594602901999</v>
       </c>
       <c r="G60">
         <v>5</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>123.54236206954934</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>55.858097895220084</v>
       </c>
       <c r="P60">
         <v>3.14159265358979</v>
@@ -3693,15 +4173,23 @@
         <v>76.038955602659996</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>179.4235584120969</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64.147290339516061</v>
       </c>
       <c r="G61">
         <v>4</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>122.28361402466139</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>58.519497029047315</v>
       </c>
       <c r="P61">
         <v>3.14159265358979</v>
@@ -3720,15 +4208,23 @@
         <v>73.035049659623169</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>179.67529529894341</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>65.598085766339054</v>
       </c>
       <c r="G62">
         <v>3</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>121.29178992803374</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>61.291459682366138</v>
       </c>
       <c r="P62">
         <v>3.14159265358979</v>
@@ -3747,15 +4243,23 @@
         <v>70.000000000000199</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>179.85554180016589</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>67.059485790113087</v>
       </c>
       <c r="G63">
         <v>2</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>120.57644158790308</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>64.147290339516161</v>
       </c>
       <c r="P63">
         <v>3.14159265358979</v>
@@ -3766,15 +4270,23 @@
         <v>63</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>179.96386368615518</v>
       </c>
       <c r="F64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>68.527969770177364</v>
       </c>
       <c r="G64">
         <v>1</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>120.14445819983409</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>67.059485790113186</v>
       </c>
       <c r="P64">
         <v>3.14159265358979</v>
@@ -3785,7 +4297,7 @@
         <v>64</v>
       </c>
       <c r="E65">
-        <f t="shared" ref="E65" si="4">150-30*COS((P65/2)*A65/32)</f>
+        <f t="shared" ref="E65" si="6">150-30*COS((P65/2)*A65/32)</f>
         <v>180</v>
       </c>
       <c r="F65">
@@ -3795,6 +4307,14 @@
       <c r="G65">
         <v>0</v>
       </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
       <c r="P65">
         <v>3.14159265358979</v>
       </c>
@@ -3804,11 +4324,11 @@
         <v>63</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E99" si="5">150-30*COS((P66/2)*A66/32)</f>
+        <f t="shared" ref="E66:E99" si="7">150-30*COS((P66/2)*A66/32)</f>
         <v>179.96386368615518</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F99" si="6">70-30*SIN((P66/2)*G66/32)</f>
+        <f t="shared" ref="F66:F99" si="8">70-30*SIN((P66/2)*G66/32)</f>
         <v>71.472030229822536</v>
       </c>
       <c r="G66">
@@ -3823,11 +4343,11 @@
         <v>62</v>
       </c>
       <c r="E67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>179.85554180016589</v>
       </c>
       <c r="F67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>72.940514209886814</v>
       </c>
       <c r="G67">
@@ -3842,11 +4362,11 @@
         <v>61</v>
       </c>
       <c r="E68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>179.67529529894341</v>
       </c>
       <c r="F68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>74.401914233660847</v>
       </c>
       <c r="G68">
@@ -3861,11 +4381,11 @@
         <v>60</v>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>179.4235584120969</v>
       </c>
       <c r="F69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>75.852709660483839</v>
       </c>
       <c r="G69">
@@ -3880,11 +4400,11 @@
         <v>59</v>
       </c>
       <c r="E70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>179.10093759583629</v>
       </c>
       <c r="F70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>77.289405397097909</v>
       </c>
       <c r="G70">
@@ -3899,11 +4419,11 @@
         <v>58</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>178.70821007196625</v>
       </c>
       <c r="F71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>78.708540317633862</v>
       </c>
       <c r="G71">
@@ -3918,11 +4438,11 @@
         <v>57</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>178.2463219554906</v>
       </c>
       <c r="F72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>80.106695601766589</v>
       </c>
       <c r="G72">
@@ -3937,11 +4457,11 @@
         <v>56</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>177.71638597533857</v>
       </c>
       <c r="F73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.480502970952685</v>
       </c>
       <c r="G73">
@@ -3956,11 +4476,11 @@
         <v>55</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>177.11967879370326</v>
       </c>
       <c r="F74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>82.826652802908455</v>
       </c>
       <c r="G74">
@@ -3975,11 +4495,11 @@
         <v>54</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>176.4576379304506</v>
       </c>
       <c r="F75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>84.141902104779916</v>
       </c>
       <c r="G75">
@@ -3994,11 +4514,11 @@
         <v>53</v>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>175.73185830000813</v>
       </c>
       <c r="F76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>85.423082325796642</v>
       </c>
       <c r="G76">
@@ -4013,11 +4533,11 @@
         <v>52</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>174.94408836907633</v>
       </c>
       <c r="F77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>86.667106990588053</v>
       </c>
       <c r="G77">
@@ -4032,11 +4552,11 @@
         <v>51</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>174.0962259444193</v>
       </c>
       <c r="F78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>87.870979134772981</v>
       </c>
       <c r="G78">
@@ -4051,11 +4571,11 @@
         <v>50</v>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>173.19031360088206</v>
       </c>
       <c r="F79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>89.031798524909348</v>
       </c>
       <c r="G79">
@@ -4070,11 +4590,11 @@
         <v>49</v>
       </c>
       <c r="E80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>172.22853376064873</v>
       </c>
       <c r="F80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90.146768645410532</v>
       </c>
       <c r="G80">
@@ -4089,11 +4609,11 @@
         <v>48</v>
       </c>
       <c r="E81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>171.21320343559637</v>
       </c>
       <c r="F81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>91.213203435596412</v>
       </c>
       <c r="G81">
@@ -4108,11 +4628,11 @@
         <v>47</v>
       </c>
       <c r="E82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>170.1467686454105</v>
       </c>
       <c r="F82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>92.228533760648759</v>
       </c>
       <c r="G82">
@@ -4127,11 +4647,11 @@
         <v>46</v>
       </c>
       <c r="E83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>169.03179852490931</v>
       </c>
       <c r="F83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>93.190313600882092</v>
       </c>
       <c r="G83">
@@ -4146,11 +4666,11 @@
         <v>45</v>
       </c>
       <c r="E84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>167.87097913477294</v>
       </c>
       <c r="F84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>94.096225944419331</v>
       </c>
       <c r="G84">
@@ -4165,11 +4685,11 @@
         <v>44</v>
       </c>
       <c r="E85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>166.66710699058802</v>
       </c>
       <c r="F85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>94.94408836907634</v>
       </c>
       <c r="G85">
@@ -4184,11 +4704,11 @@
         <v>43</v>
       </c>
       <c r="E86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>165.4230823257966</v>
       </c>
       <c r="F86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>95.731858300008142</v>
       </c>
       <c r="G86">
@@ -4203,11 +4723,11 @@
         <v>42</v>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>164.14190210477986</v>
       </c>
       <c r="F87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>96.45763793045063</v>
       </c>
       <c r="G87">
@@ -4222,11 +4742,11 @@
         <v>41</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>162.8266528029084</v>
       </c>
       <c r="F88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>97.119678793703287</v>
       </c>
       <c r="G88">
@@ -4241,11 +4761,11 @@
         <v>40</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>161.48050297095264</v>
       </c>
       <c r="F89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>97.716385975338596</v>
       </c>
       <c r="G89">
@@ -4260,11 +4780,11 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>160.10669560176655</v>
       </c>
       <c r="F90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>98.246321955490615</v>
       </c>
       <c r="G90">
@@ -4279,11 +4799,11 @@
         <v>38</v>
       </c>
       <c r="E91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>158.7085403176338</v>
       </c>
       <c r="F91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>98.708210071966249</v>
       </c>
       <c r="G91">
@@ -4298,11 +4818,11 @@
         <v>37</v>
       </c>
       <c r="E92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>157.28940539709785</v>
       </c>
       <c r="F92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>99.100937595836314</v>
       </c>
       <c r="G92">
@@ -4317,11 +4837,11 @@
         <v>36</v>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>155.85270966048378</v>
       </c>
       <c r="F93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>99.423558412096909</v>
       </c>
       <c r="G93">
@@ -4336,11 +4856,11 @@
         <v>35</v>
       </c>
       <c r="E94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>154.40191423366079</v>
       </c>
       <c r="F94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>99.675295298943425</v>
       </c>
       <c r="G94">
@@ -4355,11 +4875,11 @@
         <v>34</v>
       </c>
       <c r="E95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>152.94051420988677</v>
       </c>
       <c r="F95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>99.855541800165895</v>
       </c>
       <c r="G95">
@@ -4374,11 +4894,11 @@
         <v>33</v>
       </c>
       <c r="E96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>151.47203022982251</v>
       </c>
       <c r="F96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>99.963863686155165</v>
       </c>
       <c r="G96">
@@ -4393,11 +4913,11 @@
         <v>32</v>
       </c>
       <c r="E97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>149.99999999999994</v>
       </c>
       <c r="F97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="G97">
@@ -4412,11 +4932,11 @@
         <v>31</v>
       </c>
       <c r="E98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>148.52796977017741</v>
       </c>
       <c r="F98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>99.963863686155165</v>
       </c>
       <c r="G98">
@@ -4431,11 +4951,11 @@
         <v>30</v>
       </c>
       <c r="E99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>147.05948579011314</v>
       </c>
       <c r="F99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>99.855541800165895</v>
       </c>
       <c r="G99">
@@ -4450,11 +4970,11 @@
         <v>29</v>
       </c>
       <c r="E100">
-        <f t="shared" ref="E100:E129" si="7">150-30*COS((P100/2)*A100/32)</f>
+        <f t="shared" ref="E100:E129" si="9">150-30*COS((P100/2)*A100/32)</f>
         <v>145.5980857663391</v>
       </c>
       <c r="F100">
-        <f t="shared" ref="F100:F129" si="8">70-30*SIN((P100/2)*G100/32)</f>
+        <f t="shared" ref="F100:F129" si="10">70-30*SIN((P100/2)*G100/32)</f>
         <v>99.675295298943425</v>
       </c>
       <c r="G100">
@@ -4469,11 +4989,11 @@
         <v>28</v>
       </c>
       <c r="E101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>144.1472903395161</v>
       </c>
       <c r="F101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>99.423558412096909</v>
       </c>
       <c r="G101">
@@ -4488,11 +5008,11 @@
         <v>27</v>
       </c>
       <c r="E102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>142.71059460290203</v>
       </c>
       <c r="F102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>99.100937595836314</v>
       </c>
       <c r="G102">
@@ -4507,11 +5027,11 @@
         <v>26</v>
       </c>
       <c r="E103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>141.29145968236608</v>
       </c>
       <c r="F103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>98.708210071966249</v>
       </c>
       <c r="G103">
@@ -4526,11 +5046,11 @@
         <v>25</v>
       </c>
       <c r="E104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>139.89330439823337</v>
       </c>
       <c r="F104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>98.246321955490615</v>
       </c>
       <c r="G104">
@@ -4545,11 +5065,11 @@
         <v>24</v>
       </c>
       <c r="E105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>138.51949702904727</v>
       </c>
       <c r="F105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>97.716385975338596</v>
       </c>
       <c r="G105">
@@ -4564,11 +5084,11 @@
         <v>23</v>
       </c>
       <c r="E106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>137.17334719709152</v>
       </c>
       <c r="F106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>97.119678793703287</v>
       </c>
       <c r="G106">
@@ -4583,11 +5103,11 @@
         <v>22</v>
       </c>
       <c r="E107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>135.85809789522006</v>
       </c>
       <c r="F107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>96.45763793045063</v>
       </c>
       <c r="G107">
@@ -4602,11 +5122,11 @@
         <v>21</v>
       </c>
       <c r="E108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>134.57691767420332</v>
       </c>
       <c r="F108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>95.731858300008142</v>
       </c>
       <c r="G108">
@@ -4621,11 +5141,11 @@
         <v>20</v>
       </c>
       <c r="E109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>133.33289300941192</v>
       </c>
       <c r="F109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>94.94408836907634</v>
       </c>
       <c r="G109">
@@ -4640,11 +5160,11 @@
         <v>19</v>
       </c>
       <c r="E110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>132.12902086522698</v>
       </c>
       <c r="F110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>94.096225944419331</v>
       </c>
       <c r="G110">
@@ -4659,11 +5179,11 @@
         <v>18</v>
       </c>
       <c r="E111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>130.96820147509061</v>
       </c>
       <c r="F111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>93.190313600882092</v>
       </c>
       <c r="G111">
@@ -4678,11 +5198,11 @@
         <v>17</v>
       </c>
       <c r="E112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>129.85323135458944</v>
       </c>
       <c r="F112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>92.228533760648759</v>
       </c>
       <c r="G112">
@@ -4697,11 +5217,11 @@
         <v>16</v>
       </c>
       <c r="E113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>128.78679656440355</v>
       </c>
       <c r="F113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>91.213203435596412</v>
       </c>
       <c r="G113">
@@ -4716,11 +5236,11 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>127.77146623935121</v>
       </c>
       <c r="F114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90.146768645410532</v>
       </c>
       <c r="G114">
@@ -4735,11 +5255,11 @@
         <v>14</v>
       </c>
       <c r="E115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>126.80968639911788</v>
       </c>
       <c r="F115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>89.031798524909348</v>
       </c>
       <c r="G115">
@@ -4754,11 +5274,11 @@
         <v>13</v>
       </c>
       <c r="E116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>125.90377405558064</v>
       </c>
       <c r="F116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>87.870979134772981</v>
       </c>
       <c r="G116">
@@ -4773,11 +5293,11 @@
         <v>12</v>
       </c>
       <c r="E117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>125.05591163092363</v>
       </c>
       <c r="F117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>86.667106990588053</v>
       </c>
       <c r="G117">
@@ -4792,11 +5312,11 @@
         <v>11</v>
       </c>
       <c r="E118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>124.26814169999183</v>
       </c>
       <c r="F118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>85.423082325796642</v>
       </c>
       <c r="G118">
@@ -4811,11 +5331,11 @@
         <v>10</v>
       </c>
       <c r="E119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>123.54236206954934</v>
       </c>
       <c r="F119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>84.141902104779916</v>
       </c>
       <c r="G119">
@@ -4830,11 +5350,11 @@
         <v>9</v>
       </c>
       <c r="E120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>122.88032120629668</v>
       </c>
       <c r="F120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>82.826652802908455</v>
       </c>
       <c r="G120">
@@ -4849,11 +5369,11 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>122.28361402466139</v>
       </c>
       <c r="F121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>81.480502970952685</v>
       </c>
       <c r="G121">
@@ -4868,11 +5388,11 @@
         <v>7</v>
       </c>
       <c r="E122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>121.75367804450937</v>
       </c>
       <c r="F122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>80.106695601766589</v>
       </c>
       <c r="G122">
@@ -4887,11 +5407,11 @@
         <v>6</v>
       </c>
       <c r="E123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>121.29178992803374</v>
       </c>
       <c r="F123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78.708540317633862</v>
       </c>
       <c r="G123">
@@ -4906,11 +5426,11 @@
         <v>5</v>
       </c>
       <c r="E124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>120.89906240416369</v>
       </c>
       <c r="F124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>77.289405397097909</v>
       </c>
       <c r="G124">
@@ -4925,11 +5445,11 @@
         <v>4</v>
       </c>
       <c r="E125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>120.57644158790308</v>
       </c>
       <c r="F125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>75.852709660483839</v>
       </c>
       <c r="G125">
@@ -4944,11 +5464,11 @@
         <v>3</v>
       </c>
       <c r="E126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>120.32470470105656</v>
       </c>
       <c r="F126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>74.401914233660847</v>
       </c>
       <c r="G126">
@@ -4963,11 +5483,11 @@
         <v>2</v>
       </c>
       <c r="E127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>120.14445819983409</v>
       </c>
       <c r="F127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>72.940514209886814</v>
       </c>
       <c r="G127">
@@ -4982,11 +5502,11 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>120.03613631384482</v>
       </c>
       <c r="F128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>71.472030229822536</v>
       </c>
       <c r="G128">
@@ -5001,11 +5521,11 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="F129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="G129">
@@ -5298,15 +5818,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF0AA823-55E0-402A-BE90-B39839B6BD3A}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="a149f372-b35e-4aaa-8181-1e5959f776a6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/joven points.xlsx
+++ b/joven points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/mlig317_uoa_auckland_ac_nz/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{E25B632D-9CBA-4537-BB86-FA3945E9A693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63758DD3-271F-4401-9961-5CC5EB58FFD4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{87331A48-3728-45F1-8D4B-78A1B5999891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AACC6A42-7B96-4D5A-B694-EC4F851BCA65}"/>
   </bookViews>
@@ -1158,7 +1158,726 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$1:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.14445819983409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.57644158790308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.29178992803374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122.28361402466139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123.54236206954934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125.05591163092363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126.80968639911788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.78679656440355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130.96820147509061</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>133.33289300941192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135.85809789522006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138.51949702904727</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>141.29145968236608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>144.1472903395161</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147.05948579011314</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>149.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>152.94051420988677</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>155.85270966048378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>158.7085403176338</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>161.48050297095264</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>164.14190210477986</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>166.66710699058802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>169.03179852490931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>171.21320343559637</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>173.19031360088206</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>174.94408836907633</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>176.4576379304506</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>177.71638597533857</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>178.70821007196625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>179.4235584120969</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>179.85554180016589</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>179.85554180016589</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>179.4235584120969</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>178.70821007196625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>177.71638597533857</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>176.4576379304506</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>174.94408836907633</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>173.19031360088206</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>171.21320343559637</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>169.03179852490931</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>166.66710699058802</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>164.14190210477986</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>161.48050297095264</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>158.7085403176338</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>155.85270966048378</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>152.94051420988677</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>149.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>147.05948579011314</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>144.1472903395161</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>141.29145968236608</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>138.51949702904727</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>135.85809789522006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>133.33289300941192</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>130.96820147509061</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>128.78679656440355</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>126.80968639911788</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>125.05591163092363</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>123.54236206954934</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>122.28361402466139</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>121.29178992803374</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>120.57644158790308</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>120.14445819983409</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$1:$J$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.059485790113186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.147290339516161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.291459682366138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.519497029047315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.858097895220084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.332893009411947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.968201475090652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.786796564403588</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.809686399117908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.05591163092366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.54236206954937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.283614024661411</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.291789928033744</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.576441587903091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.144458199834098</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.144458199834091</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.576441587903076</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.291789928033722</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.283614024661375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.54236206954932</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.05591163092361</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.809686399117844</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48.786796564403531</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.968201475090574</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.332893009411876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.858097895219998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.51949702904723</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.291459682366039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.147290339516061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67.059485790113087</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72.940514209886913</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>75.852709660483939</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78.708540317633961</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.48050297095277</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84.141902104780002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86.667106990588124</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>89.031798524909419</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>91.213203435596469</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>93.190313600882149</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94.944088369076383</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.457637930450687</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>97.716385975338625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>98.708210071966278</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>99.423558412096924</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99.855541800165909</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99.855541800165895</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>99.423558412096909</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>98.708210071966249</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>97.716385975338596</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>96.45763793045063</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>94.94408836907634</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>93.190313600882092</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>91.213203435596412</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89.031798524909348</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>86.667106990588053</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>84.141902104779916</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>81.480502970952685</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>78.708540317633862</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>75.852709660483839</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>72.940514209886814</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B24-49B7-AE1E-91CAEA79F030}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1582390384"/>
+        <c:axId val="1056303952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1582390384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056303952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1056303952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582390384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1714,6 +2433,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1747,6 +2982,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D23ADA4A-ABE7-06AA-F808-FC5EDC991117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2054,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E95EF23-42EC-480E-8339-9A0E2D6DD846}">
   <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,7 +4507,7 @@
         <v>40.036136313844821</v>
       </c>
       <c r="G34">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
@@ -3244,7 +4515,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
-        <v>67.059485790113087</v>
+        <v>72.940514209886913</v>
       </c>
       <c r="P34">
         <v>3.14159265358979</v>
@@ -3271,7 +4542,7 @@
         <v>40.144458199834091</v>
       </c>
       <c r="G35">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
@@ -3279,7 +4550,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
-        <v>64.147290339516061</v>
+        <v>75.852709660483939</v>
       </c>
       <c r="P35">
         <v>3.14159265358979</v>
@@ -3306,7 +4577,7 @@
         <v>40.324704701056561</v>
       </c>
       <c r="G36">
-        <v>29</v>
+        <v>-29</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
@@ -3314,7 +4585,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
-        <v>61.291459682366039</v>
+        <v>78.708540317633961</v>
       </c>
       <c r="P36">
         <v>3.14159265358979</v>
@@ -3341,7 +4612,7 @@
         <v>40.576441587903076</v>
       </c>
       <c r="G37">
-        <v>28</v>
+        <v>-28</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
@@ -3349,7 +4620,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
-        <v>58.51949702904723</v>
+        <v>81.48050297095277</v>
       </c>
       <c r="P37">
         <v>3.14159265358979</v>
@@ -3376,7 +4647,7 @@
         <v>40.899062404163672</v>
       </c>
       <c r="G38">
-        <v>27</v>
+        <v>-27</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
@@ -3384,7 +4655,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
-        <v>55.858097895219998</v>
+        <v>84.141902104780002</v>
       </c>
       <c r="P38">
         <v>3.14159265358979</v>
@@ -3411,7 +4682,7 @@
         <v>41.291789928033722</v>
       </c>
       <c r="G39">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
@@ -3419,7 +4690,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>53.332893009411876</v>
+        <v>86.667106990588124</v>
       </c>
       <c r="P39">
         <v>3.14159265358979</v>
@@ -3446,7 +4717,7 @@
         <v>41.753678044509357</v>
       </c>
       <c r="G40">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
@@ -3454,7 +4725,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
-        <v>50.968201475090574</v>
+        <v>89.031798524909419</v>
       </c>
       <c r="P40">
         <v>3.14159265358979</v>
@@ -3481,7 +4752,7 @@
         <v>42.283614024661375</v>
       </c>
       <c r="G41">
-        <v>24</v>
+        <v>-24</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
@@ -3489,7 +4760,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
-        <v>48.786796564403531</v>
+        <v>91.213203435596469</v>
       </c>
       <c r="P41">
         <v>3.14159265358979</v>
@@ -3516,7 +4787,7 @@
         <v>42.880321206296671</v>
       </c>
       <c r="G42">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
@@ -3524,7 +4795,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
-        <v>46.809686399117844</v>
+        <v>93.190313600882149</v>
       </c>
       <c r="P42">
         <v>3.14159265358979</v>
@@ -3551,7 +4822,7 @@
         <v>43.54236206954932</v>
       </c>
       <c r="G43">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
@@ -3559,7 +4830,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
-        <v>45.05591163092361</v>
+        <v>94.944088369076383</v>
       </c>
       <c r="P43">
         <v>3.14159265358979</v>
@@ -3586,7 +4857,7 @@
         <v>44.268141699991801</v>
       </c>
       <c r="G44">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
@@ -3594,7 +4865,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
-        <v>43.54236206954932</v>
+        <v>96.457637930450687</v>
       </c>
       <c r="P44">
         <v>3.14159265358979</v>
@@ -3621,7 +4892,7 @@
         <v>45.05591163092361</v>
       </c>
       <c r="G45">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
@@ -3629,7 +4900,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
-        <v>42.283614024661375</v>
+        <v>97.716385975338625</v>
       </c>
       <c r="P45">
         <v>3.14159265358979</v>
@@ -3656,7 +4927,7 @@
         <v>45.903774055580612</v>
       </c>
       <c r="G46">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
@@ -3664,7 +4935,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
-        <v>41.291789928033722</v>
+        <v>98.708210071966278</v>
       </c>
       <c r="P46">
         <v>3.14159265358979</v>
@@ -3691,7 +4962,7 @@
         <v>46.809686399117844</v>
       </c>
       <c r="G47">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
@@ -3699,7 +4970,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="4"/>
-        <v>40.576441587903076</v>
+        <v>99.423558412096924</v>
       </c>
       <c r="P47">
         <v>3.14159265358979</v>
@@ -3726,7 +4997,7 @@
         <v>47.77146623935117</v>
       </c>
       <c r="G48">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
@@ -3734,7 +5005,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="4"/>
-        <v>40.144458199834091</v>
+        <v>99.855541800165909</v>
       </c>
       <c r="P48">
         <v>3.14159265358979</v>
@@ -3796,7 +5067,7 @@
         <v>49.853231354589397</v>
       </c>
       <c r="G50">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
@@ -3804,7 +5075,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="4"/>
-        <v>40.144458199834098</v>
+        <v>99.855541800165895</v>
       </c>
       <c r="P50">
         <v>3.14159265358979</v>
@@ -3831,7 +5102,7 @@
         <v>50.968201475090574</v>
       </c>
       <c r="G51">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
@@ -3839,7 +5110,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="4"/>
-        <v>40.576441587903091</v>
+        <v>99.423558412096909</v>
       </c>
       <c r="P51">
         <v>3.14159265358979</v>
@@ -3866,7 +5137,7 @@
         <v>52.129020865226941</v>
       </c>
       <c r="G52">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
@@ -3874,7 +5145,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="4"/>
-        <v>41.291789928033744</v>
+        <v>98.708210071966249</v>
       </c>
       <c r="P52">
         <v>3.14159265358979</v>
@@ -3901,7 +5172,7 @@
         <v>53.332893009411876</v>
       </c>
       <c r="G53">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
@@ -3909,7 +5180,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="4"/>
-        <v>42.283614024661411</v>
+        <v>97.716385975338596</v>
       </c>
       <c r="P53">
         <v>3.14159265358979</v>
@@ -3936,7 +5207,7 @@
         <v>54.576917674203273</v>
       </c>
       <c r="G54">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
@@ -3944,7 +5215,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="4"/>
-        <v>43.54236206954937</v>
+        <v>96.45763793045063</v>
       </c>
       <c r="P54">
         <v>3.14159265358979</v>
@@ -3971,7 +5242,7 @@
         <v>55.858097895219998</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I55">
         <f t="shared" si="3"/>
@@ -3979,7 +5250,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="4"/>
-        <v>45.05591163092366</v>
+        <v>94.94408836907634</v>
       </c>
       <c r="P55">
         <v>3.14159265358979</v>
@@ -4006,7 +5277,7 @@
         <v>57.173347197091466</v>
       </c>
       <c r="G56">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="I56">
         <f t="shared" si="3"/>
@@ -4014,7 +5285,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="4"/>
-        <v>46.809686399117908</v>
+        <v>93.190313600882092</v>
       </c>
       <c r="P56">
         <v>3.14159265358979</v>
@@ -4041,7 +5312,7 @@
         <v>58.51949702904723</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="I57">
         <f t="shared" si="3"/>
@@ -4049,7 +5320,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="4"/>
-        <v>48.786796564403588</v>
+        <v>91.213203435596412</v>
       </c>
       <c r="P57">
         <v>3.14159265358979</v>
@@ -4076,7 +5347,7 @@
         <v>59.893304398233312</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="I58">
         <f t="shared" si="3"/>
@@ -4084,7 +5355,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="4"/>
-        <v>50.968201475090652</v>
+        <v>89.031798524909348</v>
       </c>
       <c r="P58">
         <v>3.14159265358979</v>
@@ -4111,7 +5382,7 @@
         <v>61.291459682366039</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="I59">
         <f t="shared" si="3"/>
@@ -4119,7 +5390,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="4"/>
-        <v>53.332893009411947</v>
+        <v>86.667106990588053</v>
       </c>
       <c r="P59">
         <v>3.14159265358979</v>
@@ -4146,7 +5417,7 @@
         <v>62.710594602901999</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="I60">
         <f t="shared" si="3"/>
@@ -4154,7 +5425,7 @@
       </c>
       <c r="J60">
         <f t="shared" si="4"/>
-        <v>55.858097895220084</v>
+        <v>84.141902104779916</v>
       </c>
       <c r="P60">
         <v>3.14159265358979</v>
@@ -4181,7 +5452,7 @@
         <v>64.147290339516061</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I61">
         <f t="shared" si="3"/>
@@ -4189,7 +5460,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="4"/>
-        <v>58.519497029047315</v>
+        <v>81.480502970952685</v>
       </c>
       <c r="P61">
         <v>3.14159265358979</v>
@@ -4216,7 +5487,7 @@
         <v>65.598085766339054</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="I62">
         <f t="shared" si="3"/>
@@ -4224,7 +5495,7 @@
       </c>
       <c r="J62">
         <f t="shared" si="4"/>
-        <v>61.291459682366138</v>
+        <v>78.708540317633862</v>
       </c>
       <c r="P62">
         <v>3.14159265358979</v>
@@ -4251,7 +5522,7 @@
         <v>67.059485790113087</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="I63">
         <f t="shared" si="3"/>
@@ -4259,7 +5530,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="4"/>
-        <v>64.147290339516161</v>
+        <v>75.852709660483839</v>
       </c>
       <c r="P63">
         <v>3.14159265358979</v>
@@ -4278,7 +5549,7 @@
         <v>68.527969770177364</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I64">
         <f t="shared" si="3"/>
@@ -4286,7 +5557,7 @@
       </c>
       <c r="J64">
         <f t="shared" si="4"/>
-        <v>67.059485790113186</v>
+        <v>72.940514209886814</v>
       </c>
       <c r="P64">
         <v>3.14159265358979</v>
